--- a/doc/项目章程v1.1.xlsx
+++ b/doc/项目章程v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Git\PixelCube\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\proj\PixelCube\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -134,10 +134,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>22.5万元</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目干系人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>LeapMotion(700元)+4480人时*50元/时+调研、材料等(300元)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目审批要求</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -347,6 +339,14 @@
   </si>
   <si>
     <t>1.项目章程、2.项目管理计划、3.软件需求说明书、4.概要设计说明书、5.详细设计说明书、6.测试计划、7.源代码、8.测试结果报告、9.项目总结报告、10.个人总结报告、11.项目会议记录、12.软件使用说明书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LeapMotion(700元)+792人时*50元/时+调研、材料等(300元)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.06万元</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -942,6 +942,102 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -959,102 +1055,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1338,8 +1338,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="B38" sqref="B38"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1353,24 +1353,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="31"/>
+      <c r="A1" s="61" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="30" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="31"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1382,169 +1382,169 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="31"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C4" s="28" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="31"/>
+        <v>69</v>
+      </c>
+      <c r="D4" s="62" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" s="63"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="35" t="s">
+      <c r="A5" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="36"/>
-      <c r="C5" s="36"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="37"/>
+      <c r="B5" s="32"/>
+      <c r="C5" s="32"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33"/>
     </row>
     <row r="6" spans="1:5" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="32" t="s">
+      <c r="A6" s="64" t="s">
+        <v>38</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B7" s="32"/>
+      <c r="C7" s="32"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="55">
+        <v>41602</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="34"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="B7" s="36"/>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="61">
-        <v>41602</v>
-      </c>
-      <c r="B8" s="38"/>
-      <c r="C8" s="43" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="62">
+      <c r="A9" s="57">
         <v>41620</v>
       </c>
-      <c r="B9" s="39"/>
-      <c r="C9" s="45" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="45"/>
-      <c r="E9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="63">
+      <c r="A10" s="59">
         <v>41623</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="47" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="47"/>
-      <c r="E10" s="48"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="35" t="s">
+      <c r="A11" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="36"/>
-      <c r="C11" s="36"/>
-      <c r="D11" s="36"/>
-      <c r="E11" s="37"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="33"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C12" s="49" t="s">
-        <v>62</v>
-      </c>
-      <c r="D12" s="49"/>
-      <c r="E12" s="50"/>
+        <v>80</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>79</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="52"/>
+      <c r="B13" s="35" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14" s="53"/>
-      <c r="E14" s="54"/>
+      <c r="B14" s="41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="51" t="s">
+      <c r="B15" s="35" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="43" t="s">
+        <v>13</v>
+      </c>
+      <c r="B16" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="52"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" s="55" t="s">
-        <v>46</v>
-      </c>
-      <c r="C16" s="55"/>
-      <c r="D16" s="55"/>
-      <c r="E16" s="56"/>
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="42"/>
-      <c r="B17" s="47" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="49" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="47"/>
-      <c r="D17" s="47"/>
-      <c r="E17" s="48"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="35" t="s">
+      <c r="A18" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="36"/>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="37"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="33"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
@@ -1554,13 +1554,13 @@
         <v>18</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>34</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
@@ -1571,13 +1571,13 @@
         <v>10</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D20" s="12">
         <v>15529569173</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
@@ -1585,7 +1585,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C21" s="8" t="s">
         <v>26</v>
@@ -1594,7 +1594,7 @@
         <v>18037109005</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
@@ -1602,33 +1602,33 @@
         <v>21</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D22" s="13">
         <v>15209271405</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D23" s="13">
         <v>15529579001</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
@@ -1639,13 +1639,13 @@
         <v>20</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D24" s="13">
         <v>18710996273</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
@@ -1653,16 +1653,16 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D25" s="13">
         <v>18392186329</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
@@ -1670,16 +1670,16 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D26" s="13">
         <v>18392153787</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -1687,140 +1687,143 @@
         <v>25</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D27" s="21">
         <v>13572415942</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>63</v>
-      </c>
-      <c r="B28" s="60" t="s">
-        <v>80</v>
-      </c>
-      <c r="C28" s="53"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
+        <v>61</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>78</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="51" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="C29" s="51"/>
-      <c r="D29" s="51"/>
-      <c r="E29" s="52"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="57" t="s">
-        <v>30</v>
-      </c>
       <c r="B30" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="58"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="59"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="35" t="s">
-        <v>64</v>
-      </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="37"/>
+      <c r="A33" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="32"/>
+      <c r="C33" s="32"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="33"/>
     </row>
     <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E34" s="25" t="s">
         <v>65</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>67</v>
-      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="36"/>
-      <c r="C35" s="36"/>
-      <c r="D35" s="36"/>
-      <c r="E35" s="37"/>
+      <c r="A35" s="31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="32"/>
+      <c r="C35" s="32"/>
+      <c r="D35" s="32"/>
+      <c r="E35" s="33"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C36" s="65" t="s">
-        <v>76</v>
-      </c>
-      <c r="D36" s="65"/>
-      <c r="E36" s="65"/>
+        <v>73</v>
+      </c>
+      <c r="C36" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="D36" s="30"/>
+      <c r="E36" s="30"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="66">
+      <c r="A37" s="29">
         <v>41616</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="64" t="s">
-        <v>79</v>
-      </c>
-      <c r="D37" s="64"/>
-      <c r="E37" s="64"/>
+      <c r="C37" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
@@ -1831,17 +1834,14 @@
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/项目章程v1.1.xlsx
+++ b/doc/项目章程v1.1.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -347,6 +347,14 @@
   </si>
   <si>
     <t>4.06万元</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张祎琼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变更项目预算金额</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -945,27 +953,105 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -976,84 +1062,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1336,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38:E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1353,24 +1361,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
+      <c r="A1" s="30" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1382,10 +1390,10 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="62" t="s">
+      <c r="D3" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="63"/>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
@@ -1397,79 +1405,79 @@
       <c r="C4" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="62" t="s">
+      <c r="D4" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="63"/>
+      <c r="E4" s="32"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="32"/>
-      <c r="C5" s="32"/>
-      <c r="D5" s="32"/>
-      <c r="E5" s="33"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
     </row>
     <row r="6" spans="1:5" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
+      <c r="A6" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="B7" s="32"/>
-      <c r="C7" s="32"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="55">
+      <c r="A8" s="39">
         <v>41602</v>
       </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="45" t="s">
+      <c r="B8" s="40"/>
+      <c r="C8" s="47" t="s">
         <v>39</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="57">
+      <c r="A9" s="41">
         <v>41620</v>
       </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="47" t="s">
+      <c r="B9" s="42"/>
+      <c r="C9" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59">
+      <c r="A10" s="43">
         <v>41623</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="49" t="s">
+      <c r="B10" s="44"/>
+      <c r="C10" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="52"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="31" t="s">
+      <c r="A11" s="36" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="32"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="33"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="38"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
@@ -1478,73 +1486,73 @@
       <c r="B12" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C12" s="51" t="s">
+      <c r="C12" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
+      <c r="D12" s="53"/>
+      <c r="E12" s="54"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="56"/>
     </row>
     <row r="14" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
+      <c r="C14" s="57"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="58"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="43" t="s">
+      <c r="A16" s="45" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="53" t="s">
+      <c r="B16" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="60"/>
     </row>
     <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="49" t="s">
+      <c r="A17" s="46"/>
+      <c r="B17" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="52"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="31" t="s">
+      <c r="A18" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="B18" s="32"/>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="33"/>
+      <c r="B18" s="37"/>
+      <c r="C18" s="37"/>
+      <c r="D18" s="37"/>
+      <c r="E18" s="38"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
@@ -1703,26 +1711,26 @@
       <c r="A28" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="66" t="s">
         <v>78</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
+      <c r="C28" s="57"/>
+      <c r="D28" s="57"/>
+      <c r="E28" s="58"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="55" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="56"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="63" t="s">
         <v>29</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -1733,7 +1741,7 @@
       <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="38"/>
+      <c r="A31" s="64"/>
       <c r="B31" s="5" t="s">
         <v>30</v>
       </c>
@@ -1742,7 +1750,7 @@
       <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
+      <c r="A32" s="65"/>
       <c r="B32" s="7" t="s">
         <v>31</v>
       </c>
@@ -1751,13 +1759,13 @@
       <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="31" t="s">
+      <c r="A33" s="36" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="32"/>
-      <c r="C33" s="32"/>
-      <c r="D33" s="32"/>
-      <c r="E33" s="33"/>
+      <c r="B33" s="37"/>
+      <c r="C33" s="37"/>
+      <c r="D33" s="37"/>
+      <c r="E33" s="38"/>
     </row>
     <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
@@ -1777,13 +1785,13 @@
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="31" t="s">
+      <c r="A35" s="36" t="s">
         <v>75</v>
       </c>
-      <c r="B35" s="32"/>
-      <c r="C35" s="32"/>
-      <c r="D35" s="32"/>
-      <c r="E35" s="33"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="37"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="38"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
@@ -1792,11 +1800,11 @@
       <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="30" t="s">
+      <c r="C36" s="61" t="s">
         <v>74</v>
       </c>
-      <c r="D36" s="30"/>
-      <c r="E36" s="30"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="29">
@@ -1805,25 +1813,36 @@
       <c r="B37" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C37" s="34" t="s">
+      <c r="C37" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A38" s="29">
+        <v>41621</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C38" s="62" t="s">
+        <v>82</v>
+      </c>
+      <c r="D38" s="62"/>
+      <c r="E38" s="62"/>
     </row>
   </sheetData>
-  <mergeCells count="29">
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:E11"/>
+  <mergeCells count="30">
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="A33:E33"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
@@ -1834,14 +1853,17 @@
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D4:E4"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/项目章程v1.1.xlsx
+++ b/doc/项目章程v1.1.xlsx
@@ -62,10 +62,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>预算</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -354,7 +350,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>变更项目预算金额</t>
+    <t>变更项目成本估计金额</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成本估计</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -953,6 +953,99 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -969,99 +1062,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1346,8 +1346,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38:E38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1361,24 +1361,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="32"/>
+      <c r="A1" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="63"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="62" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="32"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="63"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1390,459 +1390,461 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="32"/>
+      <c r="E3" s="63"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>71</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>72</v>
-      </c>
       <c r="C4" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>69</v>
       </c>
-      <c r="D4" s="31" t="s">
-        <v>70</v>
-      </c>
-      <c r="E4" s="32"/>
+      <c r="E4" s="63"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="32" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="37"/>
-      <c r="C5" s="37"/>
-      <c r="D5" s="37"/>
-      <c r="E5" s="38"/>
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="34"/>
     </row>
     <row r="6" spans="1:5" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="64" t="s">
+        <v>37</v>
+      </c>
+      <c r="B6" s="65"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="65"/>
+      <c r="E6" s="66"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="33"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="34"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="55">
+        <v>41602</v>
+      </c>
+      <c r="B8" s="56"/>
+      <c r="C8" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="35"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="38"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="39">
-        <v>41602</v>
-      </c>
-      <c r="B8" s="40"/>
-      <c r="C8" s="47" t="s">
-        <v>39</v>
-      </c>
-      <c r="D8" s="47"/>
-      <c r="E8" s="48"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="46"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="41">
+      <c r="A9" s="57">
         <v>41620</v>
       </c>
-      <c r="B9" s="42"/>
-      <c r="C9" s="49" t="s">
+      <c r="B9" s="58"/>
+      <c r="C9" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="49"/>
-      <c r="E9" s="50"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="48"/>
     </row>
     <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="43">
+      <c r="A10" s="59">
         <v>41623</v>
       </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="51" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D10" s="51"/>
-      <c r="E10" s="52"/>
+      <c r="D10" s="49"/>
+      <c r="E10" s="50"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="36" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="38"/>
+      <c r="A11" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="B11" s="33"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="34"/>
     </row>
     <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12" s="53" t="s">
         <v>79</v>
       </c>
-      <c r="D12" s="53"/>
-      <c r="E12" s="54"/>
+      <c r="C12" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="51"/>
+      <c r="E12" s="52"/>
     </row>
     <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="55" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="55"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="56"/>
+        <v>9</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="36"/>
     </row>
     <row r="14" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B14" s="57" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="57"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="58"/>
+        <v>10</v>
+      </c>
+      <c r="B14" s="41" t="s">
+        <v>42</v>
+      </c>
+      <c r="C14" s="41"/>
+      <c r="D14" s="41"/>
+      <c r="E14" s="42"/>
     </row>
     <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A15" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15" s="35"/>
+      <c r="D15" s="35"/>
+      <c r="E15" s="36"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A16" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="55" t="s">
+      <c r="B16" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="55"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="45" t="s">
+      <c r="C16" s="53"/>
+      <c r="D16" s="53"/>
+      <c r="E16" s="54"/>
+    </row>
+    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="44"/>
+      <c r="B17" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B16" s="59" t="s">
-        <v>45</v>
-      </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
-      <c r="E16" s="60"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="46"/>
-      <c r="B17" s="51" t="s">
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="50"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A18" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="52"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="36" t="s">
-        <v>15</v>
-      </c>
-      <c r="B18" s="37"/>
-      <c r="C18" s="37"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="38"/>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="34"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A19" s="14" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D19" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="E19" s="15" t="s">
         <v>33</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A20" s="16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B20" s="11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D20" s="12">
         <v>15529569173</v>
       </c>
       <c r="E20" s="17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D21" s="13">
         <v>18037109005</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D22" s="13">
         <v>15209271405</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D23" s="13">
         <v>15529579001</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D24" s="13">
         <v>18710996273</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D25" s="13">
         <v>18392186329</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D26" s="13">
         <v>18392153787</v>
       </c>
       <c r="E26" s="19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A27" s="20" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D27" s="21">
         <v>13572415942</v>
       </c>
       <c r="E27" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A28" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="B28" s="66" t="s">
-        <v>78</v>
-      </c>
-      <c r="C28" s="57"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="58"/>
+        <v>60</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="41"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="42"/>
     </row>
     <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A29" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B29" s="35" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="55" t="s">
+      <c r="C29" s="35"/>
+      <c r="D29" s="35"/>
+      <c r="E29" s="36"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A30" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="55"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="56"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="63" t="s">
-        <v>29</v>
-      </c>
       <c r="B30" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
       <c r="E30" s="23"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="64"/>
+      <c r="A31" s="38"/>
       <c r="B31" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="24"/>
     </row>
     <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="65"/>
+      <c r="A32" s="39"/>
       <c r="B32" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7"/>
       <c r="D32" s="7"/>
       <c r="E32" s="25"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="36" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="37"/>
-      <c r="C33" s="37"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="38"/>
+      <c r="A33" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="34"/>
     </row>
     <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="D34" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="B34" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="D34" s="7" t="s">
+      <c r="E34" s="25" t="s">
         <v>64</v>
       </c>
-      <c r="E34" s="25" t="s">
-        <v>65</v>
-      </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="36" t="s">
-        <v>75</v>
-      </c>
-      <c r="B35" s="37"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="38"/>
+      <c r="A35" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="34"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B36" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="31" t="s">
         <v>73</v>
       </c>
-      <c r="C36" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
+      <c r="D36" s="31"/>
+      <c r="E36" s="31"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A37" s="29">
         <v>41616</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C37" s="62" t="s">
-        <v>77</v>
-      </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
+        <v>16</v>
+      </c>
+      <c r="C37" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D37" s="30"/>
+      <c r="E37" s="30"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="29">
         <v>41621</v>
       </c>
       <c r="B38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C38" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="C38" s="62" t="s">
-        <v>82</v>
-      </c>
-      <c r="D38" s="62"/>
-      <c r="E38" s="62"/>
+      <c r="D38" s="30"/>
+      <c r="E38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="A33:E33"/>
+    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="B2:E2"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="A5:E5"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A11:E11"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C8:E8"/>
     <mergeCell ref="C9:E9"/>
@@ -1853,17 +1855,15 @@
     <mergeCell ref="B15:E15"/>
     <mergeCell ref="B16:E16"/>
     <mergeCell ref="B17:E17"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="A5:E5"/>
-    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="C36:E36"/>
+    <mergeCell ref="A35:E35"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A18:E18"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B28:E28"/>
+    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>

--- a/doc/项目章程v1.1.xlsx
+++ b/doc/项目章程v1.1.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\proj\PixelCube\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\Git\PixelCube\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="83">
   <si>
     <t>项目名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -50,18 +50,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>2013/12/23(Week16,Mon)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>完成编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>完成软件测试和文档整理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目经理</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -126,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目技术负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>项目干系人</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -218,18 +206,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>项目管理负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LeapMotion领域专家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>测试专家</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -334,10 +310,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1.项目章程、2.项目管理计划、3.软件需求说明书、4.概要设计说明书、5.详细设计说明书、6.测试计划、7.源代码、8.测试结果报告、9.项目总结报告、10.个人总结报告、11.项目会议记录、12.软件使用说明书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LeapMotion(700元)+792人时*50元/时+调研、材料等(300元)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -355,6 +327,34 @@
   </si>
   <si>
     <t>成本估计</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2013/12/17(Week15,Tue)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最终测试及Bug修复</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>文档归档整理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术总监</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试专家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型设计师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.项目章程、2.项目管理计划、3.软件需求规格说明书、4.概要设计说明书、5.详细设计说明书、6.测试计划、7.源代码(电子版)、8.测试结果报告、9.项目总结报告(PPT)、10.个人总结报告、11.部署手册、12.用户手册</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +416,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="37">
+  <borders count="42">
     <border>
       <left/>
       <right/>
@@ -856,13 +856,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -953,27 +1006,105 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -986,83 +1117,20 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="36" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="37" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="39" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="40" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="41" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1344,10 +1412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1361,24 +1429,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="30" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="61" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="63"/>
+      <c r="A1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="32"/>
     </row>
     <row r="2" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="63"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="32"/>
     </row>
     <row r="3" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
@@ -1390,490 +1458,503 @@
       <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="62" t="s">
-        <v>6</v>
-      </c>
-      <c r="E3" s="63"/>
+      <c r="D3" s="31" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="32"/>
     </row>
     <row r="4" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E4" s="32"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="36" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="38"/>
+    </row>
+    <row r="6" spans="1:5" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="35"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="38"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A8" s="39">
+        <v>41602</v>
+      </c>
+      <c r="B8" s="40"/>
+      <c r="C8" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="47"/>
+      <c r="E8" s="48"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="41">
+        <v>41620</v>
+      </c>
+      <c r="B9" s="42"/>
+      <c r="C9" s="49" t="s">
+        <v>6</v>
+      </c>
+      <c r="D9" s="49"/>
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="67">
+        <v>41622</v>
+      </c>
+      <c r="B10" s="68"/>
+      <c r="C10" s="69" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="70"/>
+      <c r="E10" s="71"/>
+    </row>
+    <row r="11" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="43">
+        <v>41624</v>
+      </c>
+      <c r="B11" s="44"/>
+      <c r="C11" s="51" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="51"/>
+      <c r="E11" s="52"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A12" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="37"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="37"/>
+      <c r="E12" s="38"/>
+    </row>
+    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C13" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="D4" s="62" t="s">
-        <v>69</v>
-      </c>
-      <c r="E4" s="63"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="32" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33"/>
-      <c r="E5" s="34"/>
-    </row>
-    <row r="6" spans="1:5" ht="77.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="65"/>
-      <c r="D6" s="65"/>
-      <c r="E6" s="66"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="32" t="s">
+      <c r="D13" s="53"/>
+      <c r="E13" s="54"/>
+    </row>
+    <row r="14" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="26" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="55" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" s="55"/>
+      <c r="D14" s="55"/>
+      <c r="E14" s="56"/>
+    </row>
+    <row r="15" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="33"/>
-      <c r="E7" s="34"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A8" s="55">
-        <v>41602</v>
-      </c>
-      <c r="B8" s="56"/>
-      <c r="C8" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="46"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="57">
-        <v>41620</v>
-      </c>
-      <c r="B9" s="58"/>
-      <c r="C9" s="47" t="s">
+      <c r="C15" s="57"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
+    </row>
+    <row r="16" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="55" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="55"/>
+      <c r="D16" s="55"/>
+      <c r="E16" s="56"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A17" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="59" t="s">
+        <v>41</v>
+      </c>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="60"/>
+    </row>
+    <row r="18" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="46"/>
+      <c r="B18" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="52"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A19" s="36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="38"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A20" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E20" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A21" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B21" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="47"/>
-      <c r="E9" s="48"/>
-    </row>
-    <row r="10" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="59">
-        <v>41623</v>
-      </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="49"/>
-      <c r="E10" s="50"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A11" s="32" t="s">
-        <v>82</v>
-      </c>
-      <c r="B11" s="33"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="34"/>
-    </row>
-    <row r="12" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="C12" s="51" t="s">
-        <v>78</v>
-      </c>
-      <c r="D12" s="51"/>
-      <c r="E12" s="52"/>
-    </row>
-    <row r="13" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>9</v>
-      </c>
-      <c r="B13" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="35"/>
-      <c r="E13" s="36"/>
-    </row>
-    <row r="14" spans="1:5" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26" t="s">
-        <v>10</v>
-      </c>
-      <c r="B14" s="41" t="s">
-        <v>42</v>
-      </c>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="42"/>
-    </row>
-    <row r="15" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="35"/>
-      <c r="E15" s="36"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A16" s="43" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" s="53" t="s">
-        <v>44</v>
-      </c>
-      <c r="C16" s="53"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-    </row>
-    <row r="17" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="44"/>
-      <c r="B17" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="50"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A18" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="34"/>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A19" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="C19" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="15" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A20" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="11" t="s">
+      <c r="C21" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D21" s="12">
+        <v>15529569173</v>
+      </c>
+      <c r="E21" s="17" t="s">
         <v>48</v>
-      </c>
-      <c r="D20" s="12">
-        <v>15529569173</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A21" s="18" t="s">
-        <v>18</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="13">
-        <v>18037109005</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C22" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="13">
+        <v>18037109005</v>
+      </c>
+      <c r="E22" s="19" t="s">
         <v>49</v>
-      </c>
-      <c r="D22" s="13">
-        <v>15209271405</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="D23" s="13">
+        <v>15209271405</v>
+      </c>
+      <c r="E23" s="19" t="s">
         <v>31</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="D23" s="13">
-        <v>15529579001</v>
-      </c>
-      <c r="E23" s="19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>19</v>
+        <v>44</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="D24" s="13">
-        <v>18710996273</v>
+        <v>15529579001</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D25" s="13">
-        <v>18392186329</v>
+        <v>18710996273</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>35</v>
+        <v>59</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D26" s="13">
+        <v>18392186329</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A27" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D27" s="13">
+        <v>18392153787</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D28" s="21">
+        <v>13572415942</v>
+      </c>
+      <c r="E28" s="22" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" s="66" t="s">
+        <v>82</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="57"/>
+      <c r="E29" s="58"/>
+    </row>
+    <row r="30" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="26" t="s">
         <v>23</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="8" t="s">
+      <c r="B30" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30" s="55"/>
+      <c r="D30" s="55"/>
+      <c r="E30" s="56"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A31" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="13">
-        <v>18392153787</v>
-      </c>
-      <c r="E26" s="19" t="s">
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="23"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A32" s="64"/>
+      <c r="B32" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+      <c r="E32" s="24"/>
+    </row>
+    <row r="33" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="65"/>
+      <c r="B33" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33" s="7"/>
+      <c r="D33" s="7"/>
+      <c r="E33" s="25"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A34" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B34" s="37"/>
+      <c r="C34" s="37"/>
+      <c r="D34" s="37"/>
+      <c r="E34" s="38"/>
+    </row>
+    <row r="35" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="B35" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C35" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="D35" s="7" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="B27" s="9" t="s">
-        <v>47</v>
-      </c>
-      <c r="C27" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="D27" s="21">
-        <v>13572415942</v>
-      </c>
-      <c r="E27" s="22" t="s">
+      <c r="E35" s="25" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="28" spans="1:5" ht="53.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B28" s="40" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="42"/>
-    </row>
-    <row r="29" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="B29" s="35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="35"/>
-      <c r="E29" s="36"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A30" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="B30" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="C30" s="4"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="23"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A31" s="38"/>
-      <c r="B31" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="C31" s="5"/>
-      <c r="D31" s="5"/>
-      <c r="E31" s="24"/>
-    </row>
-    <row r="32" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39"/>
-      <c r="B32" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C32" s="7"/>
-      <c r="D32" s="7"/>
-      <c r="E32" s="25"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A33" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="34"/>
-    </row>
-    <row r="34" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="B34" s="7" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A36" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="B36" s="37"/>
+      <c r="C36" s="37"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="38"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A37" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="C34" s="7" t="s">
+      <c r="C37" s="62" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A35" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="34"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A36" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C36" s="31" t="s">
-        <v>73</v>
-      </c>
-      <c r="D36" s="31"/>
-      <c r="E36" s="31"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A37" s="29">
-        <v>41616</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C37" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D37" s="30"/>
-      <c r="E37" s="30"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A38" s="29">
+        <v>41616</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C38" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A39" s="29">
         <v>41621</v>
       </c>
-      <c r="B38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C38" s="30" t="s">
-        <v>81</v>
-      </c>
-      <c r="D38" s="30"/>
-      <c r="E38" s="30"/>
+      <c r="B39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C39" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="31">
+    <mergeCell ref="C39:E39"/>
+    <mergeCell ref="C37:E37"/>
+    <mergeCell ref="A36:E36"/>
+    <mergeCell ref="C38:E38"/>
+    <mergeCell ref="A19:E19"/>
+    <mergeCell ref="B30:E30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="B29:E29"/>
+    <mergeCell ref="A34:E34"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="C8:E8"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="B14:E14"/>
+    <mergeCell ref="B15:E15"/>
+    <mergeCell ref="B16:E16"/>
+    <mergeCell ref="B17:E17"/>
+    <mergeCell ref="B18:E18"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="A7:E7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A12:E12"/>
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="B2:E2"/>
     <mergeCell ref="A6:E6"/>
     <mergeCell ref="D3:E3"/>
     <mergeCell ref="A5:E5"/>
     <mergeCell ref="D4:E4"/>
-    <mergeCell ref="A7:E7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C8:E8"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="C38:E38"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="A35:E35"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="A18:E18"/>
-    <mergeCell ref="B29:E29"/>
-    <mergeCell ref="A30:A32"/>
-    <mergeCell ref="B28:E28"/>
-    <mergeCell ref="A33:E33"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E22" r:id="rId1"/>
-    <hyperlink ref="E20" r:id="rId2"/>
-    <hyperlink ref="E25" r:id="rId3"/>
-    <hyperlink ref="E23" r:id="rId4"/>
-    <hyperlink ref="E26" r:id="rId5"/>
-    <hyperlink ref="E24" r:id="rId6"/>
+    <hyperlink ref="E23" r:id="rId1"/>
+    <hyperlink ref="E21" r:id="rId2"/>
+    <hyperlink ref="E26" r:id="rId3"/>
+    <hyperlink ref="E24" r:id="rId4"/>
+    <hyperlink ref="E27" r:id="rId5"/>
+    <hyperlink ref="E25" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>